--- a/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E1C8A54-4BEC-4B12-94E2-A669E17592A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C6B6AF-442A-42AD-9E44-26911333845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4F78510C-7F17-46E5-A149-937E6D3D806B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F04C62-FC9F-406B-803E-70E65C240E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,195 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
     <t>10,68%</t>
   </si>
   <si>
@@ -118,33 +286,6 @@
     <t>14,27%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
     <t>1,22%</t>
   </si>
   <si>
@@ -169,42 +310,9 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,31%</t>
   </si>
   <si>
@@ -220,112 +328,58 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>9,42%</t>
@@ -355,33 +409,6 @@
     <t>12,9%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>0,98%</t>
   </si>
   <si>
@@ -406,33 +433,6 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
@@ -457,6 +457,177 @@
     <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
   </si>
   <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
     <t>16,62%</t>
   </si>
   <si>
@@ -484,33 +655,6 @@
     <t>17,5%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
@@ -529,33 +673,6 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
     <t>1,09%</t>
   </si>
   <si>
@@ -583,121 +700,55 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>15,71%</t>
@@ -727,30 +778,6 @@
     <t>15,76%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
     <t>0,8%</t>
   </si>
   <si>
@@ -775,33 +802,6 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
     <t>1,11%</t>
   </si>
   <si>
@@ -820,6 +820,159 @@
     <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
     <t>6,58%</t>
   </si>
   <si>
@@ -844,30 +997,6 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
     <t>3,19%</t>
   </si>
   <si>
@@ -895,33 +1024,6 @@
     <t>6,47%</t>
   </si>
   <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
     <t>2,47%</t>
   </si>
   <si>
@@ -946,106 +1048,55 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>7,19%</t>
@@ -1072,30 +1123,6 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
     <t>4,09%</t>
   </si>
   <si>
@@ -1118,33 +1145,6 @@
   </si>
   <si>
     <t>6,65%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC5BC9B-2E91-402F-98E6-946DCB8D7AC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E8F54B-1484-4AC4-9A29-A84F05E67F49}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1941,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>29848</v>
+        <v>49554</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1956,10 +1956,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>34145</v>
+        <v>38484</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1971,10 +1971,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="N10" s="7">
-        <v>63993</v>
+        <v>88037</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1992,10 +1992,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>65098</v>
+        <v>13802</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2007,10 +2007,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>69026</v>
+        <v>10529</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2022,10 +2022,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>134123</v>
+        <v>24331</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2043,10 +2043,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>3403</v>
+        <v>2710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2058,10 +2058,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>3437</v>
+        <v>5717</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2073,10 +2073,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>6840</v>
+        <v>8427</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2094,10 +2094,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>180559</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2109,34 +2109,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>154895</v>
+        <v>1313</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1313</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>501</v>
-      </c>
-      <c r="N13" s="7">
-        <v>335453</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,49 +2145,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3469</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>4082</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,102 +2196,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264971</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>812</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>544492</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="D16" s="7">
-        <v>2710</v>
+        <v>180559</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>229</v>
+      </c>
+      <c r="I16" s="7">
+        <v>154895</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="7">
+        <v>501</v>
+      </c>
+      <c r="N16" s="7">
+        <v>335453</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5717</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>12</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8427</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +2300,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7">
-        <v>13802</v>
+        <v>65098</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
+        <v>103</v>
+      </c>
+      <c r="I17" s="7">
+        <v>69026</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="7">
+        <v>200</v>
+      </c>
+      <c r="N17" s="7">
+        <v>134123</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10529</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="7">
-        <v>38</v>
-      </c>
-      <c r="N17" s="7">
-        <v>24331</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2351,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>29848</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7">
+        <v>51</v>
+      </c>
+      <c r="I18" s="7">
+        <v>34145</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="7">
+        <v>95</v>
+      </c>
+      <c r="N18" s="7">
+        <v>63993</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1313</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1313</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,49 +2402,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>49554</v>
+        <v>3403</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3437</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6840</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="7">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38484</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>131</v>
-      </c>
-      <c r="N19" s="7">
-        <v>88037</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,46 +2453,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>3469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>4082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>95</v>
@@ -2504,49 +2504,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264971</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>812</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>544492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="D22" s="7">
-        <v>32558</v>
+        <v>230112</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>96</v>
@@ -2572,10 +2572,10 @@
         <v>98</v>
       </c>
       <c r="H22" s="7">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="I22" s="7">
-        <v>39862</v>
+        <v>193378</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>99</v>
@@ -2587,10 +2587,10 @@
         <v>101</v>
       </c>
       <c r="M22" s="7">
-        <v>107</v>
+        <v>632</v>
       </c>
       <c r="N22" s="7">
-        <v>72420</v>
+        <v>423491</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>102</v>
@@ -2659,10 +2659,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7">
-        <v>3403</v>
+        <v>32558</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>114</v>
@@ -2674,10 +2674,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="I24" s="7">
-        <v>4749</v>
+        <v>39862</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>117</v>
@@ -2689,19 +2689,19 @@
         <v>119</v>
       </c>
       <c r="M24" s="7">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="N24" s="7">
-        <v>8153</v>
+        <v>72420</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,43 +2710,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>347</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>230112</v>
+        <v>3403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>193378</v>
+        <v>4749</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
-        <v>632</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>423491</v>
+        <v>8153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>129</v>
@@ -2770,7 +2770,7 @@
         <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>132</v>
@@ -2800,7 +2800,7 @@
         <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>137</v>
@@ -2818,13 +2818,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -2833,13 +2833,13 @@
         <v>321012</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>995</v>
@@ -2848,13 +2848,13 @@
         <v>666600</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E07A24-2E7D-448C-A932-3260130528A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFD09AC-C254-4AFE-9E22-0FED7D958206}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,10 +3263,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>44271</v>
+        <v>45299</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>139</v>
@@ -3278,10 +3278,10 @@
         <v>141</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>33227</v>
+        <v>44644</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>142</v>
@@ -3293,10 +3293,10 @@
         <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>77498</v>
+        <v>89943</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>145</v>
@@ -3314,10 +3314,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>59942</v>
+        <v>10691</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>148</v>
@@ -3329,10 +3329,10 @@
         <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>65496</v>
+        <v>21476</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>151</v>
@@ -3344,19 +3344,19 @@
         <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="N11" s="7">
-        <v>125437</v>
+        <v>32167</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,49 +3365,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>1205</v>
+        <v>7956</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>158</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>5410</v>
+        <v>2661</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>159</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>6615</v>
+        <v>10618</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3416,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>158017</v>
+        <v>1451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>142408</v>
+        <v>3187</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>300425</v>
+        <v>4638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,49 +3467,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>2900</v>
+        <v>777</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>174</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>4136</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>777</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="M14" s="7">
-        <v>10</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7035</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,102 +3518,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>266334</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>250676</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>749</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>517010</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>7956</v>
+        <v>158017</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>203</v>
+      </c>
+      <c r="I16" s="7">
+        <v>142408</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2661</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>432</v>
+      </c>
+      <c r="N16" s="7">
+        <v>300425</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10618</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,49 +3622,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7">
-        <v>10691</v>
+        <v>59942</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
+        <v>92</v>
+      </c>
+      <c r="I17" s="7">
+        <v>65496</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21476</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>183</v>
+      </c>
+      <c r="N17" s="7">
+        <v>125437</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="M17" s="7">
-        <v>44</v>
-      </c>
-      <c r="N17" s="7">
-        <v>32167</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,49 +3673,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7">
-        <v>1451</v>
+        <v>44271</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>48</v>
+      </c>
+      <c r="I18" s="7">
+        <v>33227</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3187</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>114</v>
+      </c>
+      <c r="N18" s="7">
+        <v>77498</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
-      <c r="N18" s="7">
-        <v>4638</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,49 +3724,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>45299</v>
+        <v>1205</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5410</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="7">
-        <v>63</v>
-      </c>
-      <c r="I19" s="7">
-        <v>44644</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6615</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7">
-        <v>126</v>
-      </c>
-      <c r="N19" s="7">
-        <v>89943</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,46 +3775,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>777</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4136</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>10</v>
+      </c>
+      <c r="N20" s="7">
+        <v>7035</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>777</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>219</v>
@@ -3826,49 +3826,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>266334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>250676</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>749</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>517010</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3879,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="D22" s="7">
-        <v>52227</v>
+        <v>203315</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>220</v>
@@ -3894,10 +3894,10 @@
         <v>222</v>
       </c>
       <c r="H22" s="7">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="I22" s="7">
-        <v>35888</v>
+        <v>187052</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>223</v>
@@ -3909,10 +3909,10 @@
         <v>225</v>
       </c>
       <c r="M22" s="7">
-        <v>129</v>
+        <v>558</v>
       </c>
       <c r="N22" s="7">
-        <v>88116</v>
+        <v>390367</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>226</v>
@@ -3981,10 +3981,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D24" s="7">
-        <v>2656</v>
+        <v>52227</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>237</v>
@@ -3996,10 +3996,10 @@
         <v>239</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="I24" s="7">
-        <v>8597</v>
+        <v>35888</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>240</v>
@@ -4011,10 +4011,10 @@
         <v>242</v>
       </c>
       <c r="M24" s="7">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="N24" s="7">
-        <v>11252</v>
+        <v>88116</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>243</v>
@@ -4023,7 +4023,7 @@
         <v>244</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +4032,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>203315</v>
+        <v>2656</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H25" s="7">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>187052</v>
+        <v>8597</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
-        <v>558</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>390367</v>
+        <v>11252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4104,13 @@
         <v>4136</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4122,7 +4122,7 @@
         <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>258</v>
@@ -4140,13 +4140,13 @@
         <v>332508</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>458</v>
@@ -4155,13 +4155,13 @@
         <v>322645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>942</v>
@@ -4170,13 +4170,13 @@
         <v>655153</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4195,7 +4195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D567C15-8915-4026-9C81-38C39D05B7CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ACC6BE-4073-47F0-AC4F-18C474F3C441}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4585,25 +4585,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7">
-        <v>18491</v>
+        <v>51505</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7">
-        <v>26902</v>
+        <v>59784</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>262</v>
@@ -4615,10 +4615,10 @@
         <v>264</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="N10" s="7">
-        <v>45393</v>
+        <v>111289</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>265</v>
@@ -4636,10 +4636,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>68495</v>
+        <v>13654</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>268</v>
@@ -4651,10 +4651,10 @@
         <v>270</v>
       </c>
       <c r="H11" s="7">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>57434</v>
+        <v>20983</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>271</v>
@@ -4663,19 +4663,19 @@
         <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>125929</v>
+        <v>34637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>275</v>
@@ -4687,10 +4687,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>8963</v>
+        <v>7437</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>276</v>
@@ -4699,37 +4699,37 @@
         <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6490</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="7">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17254</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>20</v>
+      </c>
+      <c r="N12" s="7">
+        <v>13927</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M12" s="7">
-        <v>36</v>
-      </c>
-      <c r="N12" s="7">
-        <v>26216</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,49 +4738,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>178008</v>
+        <v>5771</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4256</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="7">
-        <v>221</v>
-      </c>
-      <c r="I13" s="7">
-        <v>160158</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10027</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M13" s="7">
-        <v>459</v>
-      </c>
-      <c r="N13" s="7">
-        <v>338165</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,49 +4789,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>6948</v>
+        <v>1366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>10460</v>
+        <v>1366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,102 +4840,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>280904</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>752</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>546162</v>
+        <v>171245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="D16" s="7">
-        <v>7437</v>
+        <v>178008</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="7">
+        <v>221</v>
+      </c>
+      <c r="I16" s="7">
+        <v>160158</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M16" s="7">
+        <v>459</v>
+      </c>
+      <c r="N16" s="7">
+        <v>338165</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6490</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M16" s="7">
-        <v>20</v>
-      </c>
-      <c r="N16" s="7">
-        <v>13927</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +4944,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>13654</v>
+        <v>68495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>20983</v>
+        <v>57434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="N17" s="7">
-        <v>34637</v>
+        <v>125929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,49 +4995,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>5771</v>
+        <v>18491</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="7">
+        <v>40</v>
+      </c>
+      <c r="I18" s="7">
+        <v>26902</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M18" s="7">
+        <v>65</v>
+      </c>
+      <c r="N18" s="7">
+        <v>45393</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4256</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M18" s="7">
-        <v>15</v>
-      </c>
-      <c r="N18" s="7">
-        <v>10027</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,49 +5046,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>51505</v>
+        <v>8963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H19" s="7">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7">
+        <v>17254</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M19" s="7">
+        <v>36</v>
+      </c>
+      <c r="N19" s="7">
+        <v>26216</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H19" s="7">
-        <v>90</v>
-      </c>
-      <c r="I19" s="7">
-        <v>59784</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M19" s="7">
-        <v>163</v>
-      </c>
-      <c r="N19" s="7">
-        <v>111289</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,46 +5097,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>1366</v>
+        <v>6948</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3512</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>16</v>
+      </c>
+      <c r="N20" s="7">
+        <v>10460</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1366</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>335</v>
@@ -5148,49 +5148,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>280904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>752</v>
       </c>
       <c r="N21" s="7">
-        <v>171245</v>
+        <v>546162</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,10 +5201,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="D22" s="7">
-        <v>25927</v>
+        <v>229513</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>336</v>
@@ -5213,37 +5213,37 @@
         <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="I22" s="7">
-        <v>33392</v>
+        <v>219942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
-        <v>85</v>
+        <v>622</v>
       </c>
       <c r="N22" s="7">
-        <v>59319</v>
+        <v>449455</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5258,13 @@
         <v>82149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -5273,13 +5273,13 @@
         <v>78417</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>229</v>
@@ -5288,13 +5288,13 @@
         <v>160566</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,25 +5303,25 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7">
-        <v>14734</v>
+        <v>25927</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I24" s="7">
-        <v>21509</v>
+        <v>33392</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>355</v>
@@ -5330,22 +5330,22 @@
         <v>356</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="N24" s="7">
-        <v>36243</v>
+        <v>59319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,40 +5354,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>229513</v>
+        <v>14734</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H25" s="7">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>219942</v>
+        <v>21509</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
-        <v>622</v>
+        <v>51</v>
       </c>
       <c r="N25" s="7">
-        <v>449455</v>
+        <v>36243</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>366</v>
@@ -5426,7 +5426,7 @@
         <v>3512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>255</v>
@@ -5441,10 +5441,10 @@
         <v>11826</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>373</v>
@@ -5462,13 +5462,13 @@
         <v>360636</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5477,13 +5477,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>1005</v>
@@ -5492,13 +5492,13 @@
         <v>717408</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C6B6AF-442A-42AD-9E44-26911333845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D213B6-D96F-474A-8F69-BC43D938FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F04C62-FC9F-406B-803E-70E65C240E8F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55FFF3D6-86FA-4C65-A658-CCA2192C201E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="387">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -67,1099 +67,1138 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>59,66%</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1209,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1266,39 +1305,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1350,7 +1389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1461,13 +1500,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1476,6 +1508,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1540,19 +1579,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E8F54B-1484-4AC4-9A29-A84F05E67F49}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E80CC1-2696-4FAC-B02E-9966C7B6A658}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1941,49 +2000,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
-      </c>
-      <c r="D10" s="7">
-        <v>49554</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
-      </c>
-      <c r="I10" s="7">
-        <v>38484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
-      </c>
-      <c r="N10" s="7">
-        <v>88037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,49 +2045,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
-        <v>13802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,49 +2090,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,47 +2137,41 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,47 +2182,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,102 +2225,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>180559</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>154895</v>
+        <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>335453</v>
+        <v>654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +2323,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>65098</v>
+        <v>1378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>69026</v>
+        <v>1945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>134123</v>
+        <v>3322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2374,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>29848</v>
+        <v>11384</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H18" s="7">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>34145</v>
+        <v>8515</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M18" s="7">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>63993</v>
+        <v>19899</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,49 +2425,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>3403</v>
+        <v>31846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>3437</v>
+        <v>31907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="N19" s="7">
-        <v>6840</v>
+        <v>63754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,49 +2476,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="D20" s="7">
-        <v>613</v>
+        <v>96907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="I20" s="7">
-        <v>3469</v>
+        <v>84527</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="N20" s="7">
-        <v>4082</v>
+        <v>181435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,102 +2527,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>264971</v>
+        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>812</v>
+        <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>544492</v>
+        <v>269063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>347</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>230112</v>
+        <v>613</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>193378</v>
+        <v>2815</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>632</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>423491</v>
+        <v>3428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,49 +2631,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>78900</v>
+        <v>2026</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>79554</v>
+        <v>2805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>158454</v>
+        <v>4830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,49 +2682,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>32558</v>
+        <v>21175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>39862</v>
+        <v>31347</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="N24" s="7">
-        <v>72420</v>
+        <v>52522</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,49 +2733,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D25" s="7">
-        <v>3403</v>
+        <v>47053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="I25" s="7">
-        <v>4749</v>
+        <v>47647</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="N25" s="7">
-        <v>8153</v>
+        <v>94700</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,49 +2784,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D26" s="7">
-        <v>613</v>
+        <v>133205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="I26" s="7">
-        <v>3469</v>
+        <v>108851</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>6</v>
+        <v>361</v>
       </c>
       <c r="N26" s="7">
-        <v>4082</v>
+        <v>242056</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,55 +2835,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7">
+        <v>193465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>397537</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>613</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3469</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4082</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3403</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4749</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7">
+        <v>12</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8153</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32558</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
+        <v>59</v>
+      </c>
+      <c r="I30" s="7">
+        <v>39862</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="7">
+        <v>107</v>
+      </c>
+      <c r="N30" s="7">
+        <v>72420</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>118</v>
+      </c>
+      <c r="D31" s="7">
+        <v>78900</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
+        <v>120</v>
+      </c>
+      <c r="I31" s="7">
+        <v>79554</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="7">
+        <v>238</v>
+      </c>
+      <c r="N31" s="7">
+        <v>158454</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>347</v>
+      </c>
+      <c r="D32" s="7">
+        <v>230112</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
+        <v>285</v>
+      </c>
+      <c r="I32" s="7">
+        <v>193378</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" s="7">
+        <v>632</v>
+      </c>
+      <c r="N32" s="7">
+        <v>423491</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321012</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>995</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>666600</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2873,8 +3210,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFD09AC-C254-4AFE-9E22-0FED7D958206}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832BDB34-1D09-4921-9DBA-2792E30E1290}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2890,7 +3227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,49 +3600,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
-      </c>
-      <c r="D10" s="7">
-        <v>45299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
-      </c>
-      <c r="I10" s="7">
-        <v>44644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
-      </c>
-      <c r="N10" s="7">
-        <v>89943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3645,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>21476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>44</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,49 +3690,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3735,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,49 +3780,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,102 +3825,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>158017</v>
+        <v>1358</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>142408</v>
+        <v>2823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
-        <v>432</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>300425</v>
+        <v>4181</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,49 +3923,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>59942</v>
+        <v>1451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>65496</v>
+        <v>3187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>125437</v>
+        <v>4638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,49 +3974,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>44271</v>
+        <v>22157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
+        <v>11182</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="7">
         <v>48</v>
       </c>
-      <c r="I18" s="7">
-        <v>33227</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" s="7">
-        <v>114</v>
-      </c>
       <c r="N18" s="7">
-        <v>77498</v>
+        <v>33339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,49 +4025,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>1205</v>
+        <v>26767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>5410</v>
+        <v>40313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>6615</v>
+        <v>67080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,49 +4076,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D20" s="7">
-        <v>2900</v>
+        <v>104942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7">
-        <v>4136</v>
+        <v>98009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="N20" s="7">
-        <v>7035</v>
+        <v>202951</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,102 +4127,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>266334</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>250676</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>749</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>517010</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>292</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>203315</v>
+        <v>2320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>187052</v>
+        <v>1312</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7">
-        <v>558</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>390367</v>
+        <v>3632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,49 +4231,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>70633</v>
+        <v>1205</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>86972</v>
+        <v>5410</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>157605</v>
+        <v>6615</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,49 +4282,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>52227</v>
+        <v>30070</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="H24" s="7">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I24" s="7">
-        <v>35888</v>
+        <v>24706</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="M24" s="7">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="N24" s="7">
-        <v>88116</v>
+        <v>54777</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +4333,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D25" s="7">
-        <v>2656</v>
+        <v>43865</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H25" s="7">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="I25" s="7">
-        <v>8597</v>
+        <v>46659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="N25" s="7">
-        <v>11252</v>
+        <v>90525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,49 +4384,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="D26" s="7">
-        <v>3677</v>
+        <v>98374</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="I26" s="7">
-        <v>4136</v>
+        <v>89043</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="N26" s="7">
-        <v>7813</v>
+        <v>187416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,55 +4435,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>237</v>
+      </c>
+      <c r="I27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>496</v>
+      </c>
+      <c r="N27" s="7">
+        <v>342964</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3677</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4136</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="7">
+        <v>11</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7813</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2656</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="7">
+        <v>13</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8597</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" s="7">
+        <v>17</v>
+      </c>
+      <c r="N29" s="7">
+        <v>11252</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>77</v>
+      </c>
+      <c r="D30" s="7">
+        <v>52227</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="7">
+        <v>52</v>
+      </c>
+      <c r="I30" s="7">
+        <v>35888</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="7">
+        <v>129</v>
+      </c>
+      <c r="N30" s="7">
+        <v>88116</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>106</v>
+      </c>
+      <c r="D31" s="7">
+        <v>70633</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="7">
+        <v>121</v>
+      </c>
+      <c r="I31" s="7">
+        <v>86972</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" s="7">
+        <v>227</v>
+      </c>
+      <c r="N31" s="7">
+        <v>157605</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>292</v>
+      </c>
+      <c r="D32" s="7">
+        <v>203315</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="7">
+        <v>266</v>
+      </c>
+      <c r="I32" s="7">
+        <v>187052</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" s="7">
+        <v>558</v>
+      </c>
+      <c r="N32" s="7">
+        <v>390367</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>332508</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>458</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>322645</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>942</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>655153</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4195,8 +4810,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ACC6BE-4073-47F0-AC4F-18C474F3C441}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0F248A-327A-4523-A07F-8DBBB1D82BC9}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4212,7 +4827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4585,49 +5200,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
-      </c>
-      <c r="D10" s="7">
-        <v>51505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>90</v>
-      </c>
-      <c r="I10" s="7">
-        <v>59784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>163</v>
-      </c>
-      <c r="N10" s="7">
-        <v>111289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,49 +5245,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
-        <v>13654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7">
-        <v>20983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
-      </c>
-      <c r="N11" s="7">
-        <v>34637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,49 +5290,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7">
-        <v>13927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,49 +5335,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,49 +5380,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,102 +5425,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>178008</v>
+        <v>3500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="H16" s="7">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>160158</v>
+        <v>524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>338165</v>
+        <v>4024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +5523,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>68495</v>
+        <v>8719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>57434</v>
+        <v>9369</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>125929</v>
+        <v>18088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,49 +5574,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>18491</v>
+        <v>14204</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7">
+        <v>13984</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M18" s="7">
         <v>40</v>
       </c>
-      <c r="I18" s="7">
-        <v>26902</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M18" s="7">
-        <v>65</v>
-      </c>
       <c r="N18" s="7">
-        <v>45393</v>
+        <v>28188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,49 +5625,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>8963</v>
+        <v>39088</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>17254</v>
+        <v>38665</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="N19" s="7">
-        <v>26216</v>
+        <v>77753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,49 +5676,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="D20" s="7">
-        <v>6948</v>
+        <v>121802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="I20" s="7">
-        <v>3512</v>
+        <v>123441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="N20" s="7">
-        <v>10460</v>
+        <v>245243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,102 +5727,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>280904</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>752</v>
+        <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>546162</v>
+        <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4813</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2988</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M22" s="7">
+        <v>12</v>
+      </c>
+      <c r="N22" s="7">
+        <v>7802</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="7">
-        <v>229513</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H22" s="7">
-        <v>311</v>
-      </c>
-      <c r="I22" s="7">
-        <v>219942</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M22" s="7">
-        <v>622</v>
-      </c>
-      <c r="N22" s="7">
-        <v>449455</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,49 +5831,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>82149</v>
+        <v>6015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>78417</v>
+        <v>12140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>160566</v>
+        <v>18155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,49 +5882,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>25927</v>
+        <v>11723</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>33392</v>
+        <v>19408</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N24" s="7">
-        <v>59319</v>
+        <v>31132</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,49 +5933,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7">
-        <v>14734</v>
+        <v>43060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I25" s="7">
-        <v>21509</v>
+        <v>39752</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N25" s="7">
-        <v>36243</v>
+        <v>82812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +5984,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="D26" s="7">
-        <v>8313</v>
+        <v>107710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="I26" s="7">
-        <v>3512</v>
+        <v>96501</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>343</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="N26" s="7">
-        <v>11826</v>
+        <v>204212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,55 +6035,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173322</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>477</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344112</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8313</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3512</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M28" s="7">
+        <v>18</v>
+      </c>
+      <c r="N28" s="7">
+        <v>11826</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7">
+        <v>14734</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="7">
+        <v>31</v>
+      </c>
+      <c r="I29" s="7">
+        <v>21509</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M29" s="7">
+        <v>51</v>
+      </c>
+      <c r="N29" s="7">
+        <v>36243</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25927</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7">
+        <v>49</v>
+      </c>
+      <c r="I30" s="7">
+        <v>33392</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M30" s="7">
+        <v>85</v>
+      </c>
+      <c r="N30" s="7">
+        <v>59319</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>116</v>
+      </c>
+      <c r="D31" s="7">
+        <v>82149</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H31" s="7">
+        <v>113</v>
+      </c>
+      <c r="I31" s="7">
+        <v>78417</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" s="7">
+        <v>229</v>
+      </c>
+      <c r="N31" s="7">
+        <v>160566</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>311</v>
+      </c>
+      <c r="D32" s="7">
+        <v>229513</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H32" s="7">
+        <v>311</v>
+      </c>
+      <c r="I32" s="7">
+        <v>219942</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M32" s="7">
+        <v>622</v>
+      </c>
+      <c r="N32" s="7">
+        <v>449455</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>495</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>360636</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>510</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356772</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>1005</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>717408</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D213B6-D96F-474A-8F69-BC43D938FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C847116-73E9-4EAF-93E4-A9BFE71B8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55FFF3D6-86FA-4C65-A658-CCA2192C201E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93D7519D-1C47-4927-8D97-4C1496D70434}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="391">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -106,7 +106,7 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -118,7 +118,7 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -127,1078 +127,1090 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,12%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,66%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E80CC1-2696-4FAC-B02E-9966C7B6A658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A187426-677C-4FFF-A9B2-CB84FCE47721}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2670,10 +2682,10 @@
         <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2700,13 @@
         <v>21175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2703,13 +2715,13 @@
         <v>31347</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -2718,13 +2730,13 @@
         <v>52522</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2751,13 @@
         <v>47053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -2754,13 +2766,13 @@
         <v>47647</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -2769,13 +2781,13 @@
         <v>94700</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2802,13 @@
         <v>133205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
@@ -2805,13 +2817,13 @@
         <v>108851</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>361</v>
@@ -2820,13 +2832,13 @@
         <v>242056</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2906,13 @@
         <v>613</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2909,13 +2921,13 @@
         <v>3469</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2924,13 +2936,13 @@
         <v>4082</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2957,13 @@
         <v>3403</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2960,13 +2972,13 @@
         <v>4749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2978,7 +2990,7 @@
         <v>24</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>118</v>
@@ -3210,7 +3222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832BDB34-1D09-4921-9DBA-2792E30E1290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57232DC9-C28E-426A-A82B-D0C11453AFEE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3896,10 +3908,10 @@
         <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3908,10 +3920,10 @@
         <v>4181</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>154</v>
@@ -3929,13 +3941,13 @@
         <v>1451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3944,13 +3956,13 @@
         <v>3187</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3959,13 +3971,13 @@
         <v>4638</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3992,13 @@
         <v>22157</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -3995,13 +4007,13 @@
         <v>11182</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -4010,13 +4022,13 @@
         <v>33339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4043,13 @@
         <v>26767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4046,13 +4058,13 @@
         <v>40313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -4061,13 +4073,13 @@
         <v>67080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4094,13 @@
         <v>104942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -4097,13 +4109,13 @@
         <v>98009</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -4112,13 +4124,13 @@
         <v>202951</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4198,13 @@
         <v>2320</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4201,13 +4213,13 @@
         <v>1312</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4216,13 +4228,13 @@
         <v>3632</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4249,13 @@
         <v>1205</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -4252,13 +4264,13 @@
         <v>5410</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -4267,13 +4279,13 @@
         <v>6615</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4300,13 @@
         <v>30070</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -4303,13 +4315,13 @@
         <v>24706</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M24" s="7">
         <v>81</v>
@@ -4318,13 +4330,13 @@
         <v>54777</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +4351,10 @@
         <v>43865</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>213</v>
@@ -4357,10 +4369,10 @@
         <v>214</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" s="7">
         <v>132</v>
@@ -4369,13 +4381,13 @@
         <v>90525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4402,13 @@
         <v>98374</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -4405,13 +4417,13 @@
         <v>89043</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>268</v>
@@ -4420,13 +4432,13 @@
         <v>187416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4506,13 @@
         <v>3677</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -4509,13 +4521,13 @@
         <v>4136</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -4524,13 +4536,13 @@
         <v>7813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4557,13 @@
         <v>2656</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -4560,13 +4572,13 @@
         <v>8597</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -4575,13 +4587,13 @@
         <v>11252</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4608,13 @@
         <v>52227</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H30" s="7">
         <v>52</v>
@@ -4611,13 +4623,13 @@
         <v>35888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -4626,13 +4638,13 @@
         <v>88116</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4659,13 @@
         <v>70633</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H31" s="7">
         <v>121</v>
@@ -4662,13 +4674,13 @@
         <v>86972</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M31" s="7">
         <v>227</v>
@@ -4677,13 +4689,13 @@
         <v>157605</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4710,13 @@
         <v>203315</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H32" s="7">
         <v>266</v>
@@ -4713,13 +4725,13 @@
         <v>187052</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M32" s="7">
         <v>558</v>
@@ -4728,13 +4740,13 @@
         <v>390367</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0F248A-327A-4523-A07F-8DBBB1D82BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62C1975-27F7-4976-9C9D-4F02ED82BD24}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4827,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5478,13 +5490,13 @@
         <v>3500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5493,13 +5505,13 @@
         <v>524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5508,13 +5520,13 @@
         <v>4024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5541,13 @@
         <v>8719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5544,13 +5556,13 @@
         <v>9369</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -5559,13 +5571,13 @@
         <v>18088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5592,13 @@
         <v>14204</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -5595,13 +5607,13 @@
         <v>13984</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -5610,13 +5622,13 @@
         <v>28188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5643,13 @@
         <v>39088</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -5646,13 +5658,13 @@
         <v>38665</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -5661,13 +5673,13 @@
         <v>77753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5694,13 @@
         <v>121802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -5697,13 +5709,13 @@
         <v>123441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -5712,13 +5724,13 @@
         <v>245243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5798,13 @@
         <v>4813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5801,13 +5813,13 @@
         <v>2988</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5816,13 +5828,13 @@
         <v>7802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5849,13 @@
         <v>6015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -5852,13 +5864,13 @@
         <v>12140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -5867,13 +5879,13 @@
         <v>18155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5900,13 @@
         <v>11723</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -5903,13 +5915,13 @@
         <v>19408</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -5918,13 +5930,13 @@
         <v>31132</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5951,13 @@
         <v>43060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5954,13 +5966,13 @@
         <v>39752</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -5969,13 +5981,13 @@
         <v>82812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6002,13 @@
         <v>107710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>135</v>
@@ -6005,13 +6017,13 @@
         <v>96501</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
@@ -6020,13 +6032,13 @@
         <v>204212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6106,13 @@
         <v>8313</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6109,13 +6121,13 @@
         <v>3512</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>352</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -6124,13 +6136,13 @@
         <v>11826</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>354</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6157,13 @@
         <v>14734</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -6160,13 +6172,13 @@
         <v>21509</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -6175,13 +6187,13 @@
         <v>36243</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6208,13 @@
         <v>25927</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>367</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -6211,13 +6223,13 @@
         <v>33392</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -6226,13 +6238,13 @@
         <v>59319</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6259,13 @@
         <v>82149</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H31" s="7">
         <v>113</v>
@@ -6262,13 +6274,13 @@
         <v>78417</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="M31" s="7">
         <v>229</v>
@@ -6277,13 +6289,13 @@
         <v>160566</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6310,13 @@
         <v>229513</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H32" s="7">
         <v>311</v>
@@ -6313,13 +6325,13 @@
         <v>219942</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M32" s="7">
         <v>622</v>
@@ -6328,13 +6340,13 @@
         <v>449455</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C847116-73E9-4EAF-93E4-A9BFE71B8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB47628-4ACC-48A7-82DD-3F7DABC20733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93D7519D-1C47-4927-8D97-4C1496D70434}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CCC8DCF7-5144-4613-94D9-9E00C473C6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="387">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1123 +94,1111 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>58,93%</t>
+    <t>59,09%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A187426-677C-4FFF-A9B2-CB84FCE47721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DDD195-D14D-4213-8429-846D6C099A9D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,10 +2272,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2299,16 +2287,16 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>22</v>
@@ -2323,7 +2311,7 @@
         <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -2335,31 +2323,31 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1378</v>
+        <v>1945</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1945</v>
+        <v>1378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>29</v>
@@ -2386,10 +2374,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>11384</v>
+        <v>8515</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>33</v>
@@ -2401,10 +2389,10 @@
         <v>35</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>8515</v>
+        <v>11384</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>36</v>
@@ -2437,10 +2425,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>31846</v>
+        <v>31907</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>42</v>
@@ -2452,10 +2440,10 @@
         <v>44</v>
       </c>
       <c r="H19" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I19" s="7">
-        <v>31907</v>
+        <v>31846</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>45</v>
@@ -2488,10 +2476,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D20" s="7">
-        <v>96907</v>
+        <v>84527</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>51</v>
@@ -2503,10 +2491,10 @@
         <v>53</v>
       </c>
       <c r="H20" s="7">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>84527</v>
+        <v>96907</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>54</v>
@@ -2539,25 +2527,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>191</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2592,31 +2580,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>613</v>
+        <v>2815</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>2815</v>
+        <v>613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>66</v>
@@ -2643,34 +2631,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2805</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>2026</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2805</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2679,7 +2667,7 @@
         <v>4830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>75</v>
@@ -2694,10 +2682,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7">
-        <v>21175</v>
+        <v>31347</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>77</v>
@@ -2709,10 +2697,10 @@
         <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I24" s="7">
-        <v>31347</v>
+        <v>21175</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>80</v>
@@ -2748,7 +2736,7 @@
         <v>71</v>
       </c>
       <c r="D25" s="7">
-        <v>47053</v>
+        <v>47647</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>86</v>
@@ -2763,7 +2751,7 @@
         <v>71</v>
       </c>
       <c r="I25" s="7">
-        <v>47647</v>
+        <v>47053</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>89</v>
@@ -2796,10 +2784,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D26" s="7">
-        <v>133205</v>
+        <v>108851</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>95</v>
@@ -2811,10 +2799,10 @@
         <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="I26" s="7">
-        <v>108851</v>
+        <v>133205</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>98</v>
@@ -2847,25 +2835,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193465</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193465</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2900,34 +2888,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>613</v>
+        <v>3469</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>3469</v>
+        <v>613</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2936,13 +2924,13 @@
         <v>4082</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,34 +2939,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4749</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>3403</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="7">
-        <v>7</v>
-      </c>
-      <c r="I29" s="7">
-        <v>4749</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2987,10 +2975,10 @@
         <v>8153</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>118</v>
@@ -3002,10 +2990,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D30" s="7">
-        <v>32558</v>
+        <v>39862</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>119</v>
@@ -3017,10 +3005,10 @@
         <v>121</v>
       </c>
       <c r="H30" s="7">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I30" s="7">
-        <v>39862</v>
+        <v>32558</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>122</v>
@@ -3053,10 +3041,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D31" s="7">
-        <v>78900</v>
+        <v>79554</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>128</v>
@@ -3068,10 +3056,10 @@
         <v>130</v>
       </c>
       <c r="H31" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I31" s="7">
-        <v>79554</v>
+        <v>78900</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>131</v>
@@ -3104,10 +3092,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="D32" s="7">
-        <v>230112</v>
+        <v>193378</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>137</v>
@@ -3119,10 +3107,10 @@
         <v>139</v>
       </c>
       <c r="H32" s="7">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="I32" s="7">
-        <v>193378</v>
+        <v>230112</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>140</v>
@@ -3155,25 +3143,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>476</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321012</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>476</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321012</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3222,7 +3210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57232DC9-C28E-426A-A82B-D0C11453AFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341FF5F8-C8DD-43C5-AE6D-461C69C4730A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3884,31 +3872,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1358</v>
+        <v>2823</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>149</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>2823</v>
+        <v>1358</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>151</v>
@@ -3923,10 +3911,10 @@
         <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,31 +3923,31 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3187</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1451</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3187</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>158</v>
@@ -3974,7 +3962,7 @@
         <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>160</v>
@@ -3986,10 +3974,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>22157</v>
+        <v>11182</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>161</v>
@@ -4001,10 +3989,10 @@
         <v>163</v>
       </c>
       <c r="H18" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>11182</v>
+        <v>22157</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>164</v>
@@ -4022,13 +4010,13 @@
         <v>33339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,31 +4025,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7">
+        <v>40313</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="7">
         <v>39</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>26767</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="7">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40313</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>174</v>
@@ -4088,10 +4076,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D20" s="7">
-        <v>104942</v>
+        <v>98009</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>178</v>
@@ -4103,10 +4091,10 @@
         <v>180</v>
       </c>
       <c r="H20" s="7">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I20" s="7">
-        <v>98009</v>
+        <v>104942</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>181</v>
@@ -4139,25 +4127,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4192,34 +4180,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2320</v>
+        <v>1312</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2320</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1312</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4228,13 +4216,13 @@
         <v>3632</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,34 +4231,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>1205</v>
+        <v>5410</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>195</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>5410</v>
+        <v>1205</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>196</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -4279,13 +4267,13 @@
         <v>6615</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,34 +4282,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24706</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="7">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>30070</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="H24" s="7">
-        <v>36</v>
-      </c>
-      <c r="I24" s="7">
-        <v>24706</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M24" s="7">
         <v>81</v>
@@ -4330,13 +4318,13 @@
         <v>54777</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,34 +4333,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>65</v>
+      </c>
+      <c r="D25" s="7">
+        <v>46659</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="7">
         <v>67</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>43865</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="H25" s="7">
-        <v>65</v>
-      </c>
-      <c r="I25" s="7">
-        <v>46659</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M25" s="7">
         <v>132</v>
@@ -4381,13 +4369,13 @@
         <v>90525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,34 +4384,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>126</v>
+      </c>
+      <c r="D26" s="7">
+        <v>89043</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="7">
         <v>142</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>98374</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="H26" s="7">
-        <v>126</v>
-      </c>
-      <c r="I26" s="7">
-        <v>89043</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>268</v>
@@ -4432,13 +4420,13 @@
         <v>187416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,25 +4435,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>237</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175834</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>237</v>
-      </c>
-      <c r="I27" s="7">
-        <v>167130</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4500,34 +4488,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4136</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>3677</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4136</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -4536,13 +4524,13 @@
         <v>7813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,34 +4539,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7">
+        <v>8597</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="7">
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>2656</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="7">
-        <v>13</v>
-      </c>
-      <c r="I29" s="7">
-        <v>8597</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -4587,13 +4575,13 @@
         <v>11252</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,34 +4590,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>52</v>
+      </c>
+      <c r="D30" s="7">
+        <v>35888</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="7">
         <v>77</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>52227</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30" s="7">
-        <v>52</v>
-      </c>
-      <c r="I30" s="7">
-        <v>35888</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -4638,13 +4626,13 @@
         <v>88116</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,34 +4641,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>121</v>
+      </c>
+      <c r="D31" s="7">
+        <v>86972</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="7">
         <v>106</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>70633</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H31" s="7">
-        <v>121</v>
-      </c>
-      <c r="I31" s="7">
-        <v>86972</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M31" s="7">
         <v>227</v>
@@ -4689,13 +4677,13 @@
         <v>157605</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,34 +4692,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>266</v>
+      </c>
+      <c r="D32" s="7">
+        <v>187052</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32" s="7">
         <v>292</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>203315</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H32" s="7">
-        <v>266</v>
-      </c>
-      <c r="I32" s="7">
-        <v>187052</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M32" s="7">
         <v>558</v>
@@ -4740,13 +4728,13 @@
         <v>390367</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,25 +4743,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>458</v>
+      </c>
+      <c r="D33" s="7">
+        <v>322645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>484</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>332508</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>458</v>
-      </c>
-      <c r="I33" s="7">
-        <v>322645</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -4822,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62C1975-27F7-4976-9C9D-4F02ED82BD24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C938E227-ECCF-4A33-A75A-CDFFCC5398EB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4839,7 +4827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5484,34 +5472,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>524</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3500</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>524</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5520,13 +5508,13 @@
         <v>4024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,34 +5523,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9369</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>8719</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9369</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -5571,13 +5559,13 @@
         <v>18088</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,31 +5577,31 @@
         <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>14204</v>
+        <v>13984</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>13984</v>
+        <v>14204</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -5622,13 +5610,13 @@
         <v>28188</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,31 +5628,31 @@
         <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>39088</v>
+        <v>38665</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>38665</v>
+        <v>39088</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -5673,13 +5661,13 @@
         <v>77753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,34 +5676,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>176</v>
+      </c>
+      <c r="D20" s="7">
+        <v>123441</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H20" s="7">
         <v>168</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>121802</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="H20" s="7">
-        <v>176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>123441</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -5724,13 +5712,13 @@
         <v>245243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,25 +5727,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5792,34 +5780,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2988</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="7">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>4813</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2988</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5828,13 +5816,13 @@
         <v>7802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,34 +5831,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>12140</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="7">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>6015</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H23" s="7">
-        <v>17</v>
-      </c>
-      <c r="I23" s="7">
-        <v>12140</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -5879,13 +5867,13 @@
         <v>18155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,34 +5882,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19408</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>11723</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19408</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -5930,13 +5918,13 @@
         <v>31132</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,34 +5933,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7">
+        <v>39752</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="7">
+        <v>60</v>
+      </c>
+      <c r="I25" s="7">
         <v>43060</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H25" s="7">
-        <v>57</v>
-      </c>
-      <c r="I25" s="7">
-        <v>39752</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -5981,13 +5969,13 @@
         <v>82812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,34 +5984,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>135</v>
+      </c>
+      <c r="D26" s="7">
+        <v>96501</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" s="7">
         <v>143</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>107710</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H26" s="7">
-        <v>135</v>
-      </c>
-      <c r="I26" s="7">
-        <v>96501</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
@@ -6032,13 +6020,13 @@
         <v>204212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,25 +6035,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173322</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6100,34 +6088,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3512</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H28" s="7">
         <v>12</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>8313</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3512</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>348</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -6136,13 +6124,13 @@
         <v>11826</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,34 +6139,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7">
+        <v>21509</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" s="7">
         <v>20</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>14734</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H29" s="7">
-        <v>31</v>
-      </c>
-      <c r="I29" s="7">
-        <v>21509</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -6187,13 +6175,13 @@
         <v>36243</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,34 +6190,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7">
+        <v>33392</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H30" s="7">
         <v>36</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>25927</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H30" s="7">
-        <v>49</v>
-      </c>
-      <c r="I30" s="7">
-        <v>33392</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -6238,13 +6226,13 @@
         <v>59319</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,34 +6241,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>113</v>
+      </c>
+      <c r="D31" s="7">
+        <v>78417</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" s="7">
         <v>116</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>82149</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H31" s="7">
-        <v>113</v>
-      </c>
-      <c r="I31" s="7">
-        <v>78417</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M31" s="7">
         <v>229</v>
@@ -6289,13 +6277,13 @@
         <v>160566</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,31 +6295,31 @@
         <v>311</v>
       </c>
       <c r="D32" s="7">
-        <v>229513</v>
+        <v>219942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H32" s="7">
         <v>311</v>
       </c>
       <c r="I32" s="7">
-        <v>219942</v>
+        <v>229513</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M32" s="7">
         <v>622</v>
@@ -6340,13 +6328,13 @@
         <v>449455</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,25 +6343,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>510</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>495</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>360636</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>510</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356772</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
